--- a/Code/Results/Cases/Case_8_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.1855152570377</v>
+        <v>11.23610219277426</v>
       </c>
       <c r="C2">
-        <v>10.07239606547288</v>
+        <v>11.26252594959385</v>
       </c>
       <c r="D2">
-        <v>2.662994194772573</v>
+        <v>3.185628393236816</v>
       </c>
       <c r="E2">
-        <v>6.476455425178234</v>
+        <v>7.597494690953313</v>
       </c>
       <c r="F2">
-        <v>44.61159922527894</v>
+        <v>37.64601072928752</v>
       </c>
       <c r="G2">
-        <v>2.153846868346175</v>
+        <v>10.10390200692368</v>
       </c>
       <c r="H2">
-        <v>3.99209984274964</v>
+        <v>3.372894720599608</v>
       </c>
       <c r="I2">
-        <v>4.677024472419276</v>
+        <v>3.904034878678166</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>29.89133672039523</v>
+        <v>24.18241836266917</v>
       </c>
       <c r="L2">
-        <v>6.122455337759845</v>
+        <v>18.87852503168917</v>
       </c>
       <c r="M2">
-        <v>11.01387431048477</v>
+        <v>17.10787477662085</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.246117415454315</v>
       </c>
       <c r="O2">
-        <v>10.79840110266141</v>
+        <v>11.4579052091939</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.18108515745355</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.43927604828952</v>
+        <v>10.54471561144154</v>
       </c>
       <c r="C3">
-        <v>9.506986248568012</v>
+        <v>10.54204392364987</v>
       </c>
       <c r="D3">
-        <v>2.647618654579502</v>
+        <v>3.044139374056587</v>
       </c>
       <c r="E3">
-        <v>6.148991165186573</v>
+        <v>7.287720427225127</v>
       </c>
       <c r="F3">
-        <v>42.98120919472503</v>
+        <v>36.48944724050619</v>
       </c>
       <c r="G3">
-        <v>2.159633544561703</v>
+        <v>10.79918452224418</v>
       </c>
       <c r="H3">
-        <v>4.27824946228018</v>
+        <v>3.611293329439002</v>
       </c>
       <c r="I3">
-        <v>4.909462097339666</v>
+        <v>4.078231917198475</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>29.00442356256963</v>
+        <v>23.69223080582908</v>
       </c>
       <c r="L3">
-        <v>5.934126113554284</v>
+        <v>18.6634910957067</v>
       </c>
       <c r="M3">
-        <v>10.42224834095937</v>
+        <v>16.60429556072627</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.102927280130042</v>
       </c>
       <c r="O3">
-        <v>10.32932187465672</v>
+        <v>10.73796852724721</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.66481835019211</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.953185012795373</v>
+        <v>10.09492541110509</v>
       </c>
       <c r="C4">
-        <v>9.151839097214905</v>
+        <v>10.08136617096651</v>
       </c>
       <c r="D4">
-        <v>2.638492548660379</v>
+        <v>2.958075684119792</v>
       </c>
       <c r="E4">
-        <v>5.940254429794325</v>
+        <v>7.091610299680963</v>
       </c>
       <c r="F4">
-        <v>41.94356578867919</v>
+        <v>35.75183208669978</v>
       </c>
       <c r="G4">
-        <v>2.163297463287848</v>
+        <v>11.24009175890445</v>
       </c>
       <c r="H4">
-        <v>4.459830558160593</v>
+        <v>3.762882405158422</v>
       </c>
       <c r="I4">
-        <v>5.057330103100001</v>
+        <v>4.189617749083371</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>28.43958741483104</v>
+        <v>23.37777565860958</v>
       </c>
       <c r="L4">
-        <v>5.814343402961018</v>
+        <v>18.51768788981357</v>
       </c>
       <c r="M4">
-        <v>10.04614260196979</v>
+        <v>16.29719078274007</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.012056776541062</v>
       </c>
       <c r="O4">
-        <v>10.03297444299015</v>
+        <v>10.27116266976478</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.33705827703164</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.745972170258849</v>
+        <v>9.903563952129954</v>
       </c>
       <c r="C5">
-        <v>9.012717352376368</v>
+        <v>9.895339549988821</v>
       </c>
       <c r="D5">
-        <v>2.636810290346393</v>
+        <v>2.928967820354887</v>
       </c>
       <c r="E5">
-        <v>5.855570762167275</v>
+        <v>7.012039761274456</v>
       </c>
       <c r="F5">
-        <v>41.47887319001966</v>
+        <v>35.4178715888891</v>
       </c>
       <c r="G5">
-        <v>2.164832192455704</v>
+        <v>11.42480887312244</v>
       </c>
       <c r="H5">
-        <v>4.535888965162966</v>
+        <v>3.826380396070368</v>
       </c>
       <c r="I5">
-        <v>5.121418547963572</v>
+        <v>4.239034897124103</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>28.17879645788913</v>
+        <v>23.22636748706982</v>
       </c>
       <c r="L5">
-        <v>5.763289267857362</v>
+        <v>18.43837982843078</v>
       </c>
       <c r="M5">
-        <v>9.891234113019689</v>
+        <v>16.15913701065151</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.973382923612331</v>
       </c>
       <c r="O5">
-        <v>9.912412759905338</v>
+        <v>10.07549671064315</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.2027180259152</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.708605387599837</v>
+        <v>9.86930182028431</v>
       </c>
       <c r="C6">
-        <v>8.998628385174547</v>
+        <v>9.871753516448409</v>
       </c>
       <c r="D6">
-        <v>2.638983112617023</v>
+        <v>2.931121212826113</v>
       </c>
       <c r="E6">
-        <v>5.844184725925744</v>
+        <v>7.000906813727295</v>
       </c>
       <c r="F6">
-        <v>41.36072619928233</v>
+        <v>35.32934188371228</v>
       </c>
       <c r="G6">
-        <v>2.165104769943686</v>
+        <v>11.45747792428109</v>
       </c>
       <c r="H6">
-        <v>4.549284607636794</v>
+        <v>3.837484764297108</v>
       </c>
       <c r="I6">
-        <v>5.135318518484127</v>
+        <v>4.251012495546295</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>28.1037300523003</v>
+        <v>23.17663941113146</v>
       </c>
       <c r="L6">
-        <v>5.753264239473801</v>
+        <v>18.40495896457447</v>
       </c>
       <c r="M6">
-        <v>9.867075158646363</v>
+        <v>16.11945932736199</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.965799369914902</v>
       </c>
       <c r="O6">
-        <v>9.894927634649694</v>
+        <v>10.04358047863183</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.18244627164558</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.943659809784432</v>
+        <v>10.09393037039094</v>
       </c>
       <c r="C7">
-        <v>9.174363247684905</v>
+        <v>10.04994499368874</v>
       </c>
       <c r="D7">
-        <v>2.64517778870997</v>
+        <v>3.011494345933113</v>
       </c>
       <c r="E7">
-        <v>5.946598014884532</v>
+        <v>7.108802150352414</v>
       </c>
       <c r="F7">
-        <v>41.8282170857262</v>
+        <v>35.50138955312307</v>
       </c>
       <c r="G7">
-        <v>2.163361285411749</v>
+        <v>11.29435979631621</v>
       </c>
       <c r="H7">
-        <v>4.462676533319116</v>
+        <v>3.767649930583972</v>
       </c>
       <c r="I7">
-        <v>5.066641956313588</v>
+        <v>4.202681760438798</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>28.35098988209931</v>
+        <v>23.20875780897572</v>
       </c>
       <c r="L7">
-        <v>5.809646318690892</v>
+        <v>18.38075651899798</v>
       </c>
       <c r="M7">
-        <v>10.04870432800026</v>
+        <v>16.17870689888383</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.003797058031887</v>
       </c>
       <c r="O7">
-        <v>10.03846588359399</v>
+        <v>10.26094073478496</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.34381254961131</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.92567925262793</v>
+        <v>11.01828089224537</v>
       </c>
       <c r="C8">
-        <v>9.909243007502212</v>
+        <v>10.89122361985223</v>
       </c>
       <c r="D8">
-        <v>2.666778849120165</v>
+        <v>3.272254403504989</v>
       </c>
       <c r="E8">
-        <v>6.374448560794602</v>
+        <v>7.538920745650457</v>
       </c>
       <c r="F8">
-        <v>43.91936963804724</v>
+        <v>36.64161306898485</v>
       </c>
       <c r="G8">
-        <v>2.155874790314081</v>
+        <v>10.54845927546764</v>
       </c>
       <c r="H8">
-        <v>4.091913399369559</v>
+        <v>3.46400604294098</v>
       </c>
       <c r="I8">
-        <v>4.766890091508275</v>
+        <v>3.983917566628626</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.48134045569956</v>
+        <v>23.60976890046472</v>
       </c>
       <c r="L8">
-        <v>6.053285444047289</v>
+        <v>18.4853638719821</v>
       </c>
       <c r="M8">
-        <v>10.81824502157165</v>
+        <v>16.64036891716633</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.178498570740513</v>
       </c>
       <c r="O8">
-        <v>10.64732931255488</v>
+        <v>11.18656344505143</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.02093385472137</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.64278627105573</v>
+        <v>12.61287516265631</v>
       </c>
       <c r="C9">
-        <v>11.24223928799792</v>
+        <v>12.54047079948728</v>
       </c>
       <c r="D9">
-        <v>2.699482919864961</v>
+        <v>3.624794012590431</v>
       </c>
       <c r="E9">
-        <v>7.139503472555196</v>
+        <v>8.277122780041047</v>
       </c>
       <c r="F9">
-        <v>47.89615125641543</v>
+        <v>39.37728411481794</v>
       </c>
       <c r="G9">
-        <v>2.14196829893799</v>
+        <v>8.940040924277366</v>
       </c>
       <c r="H9">
-        <v>3.406937038922509</v>
+        <v>2.897402535321362</v>
       </c>
       <c r="I9">
-        <v>4.204824760278507</v>
+        <v>3.564078195718826</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>31.6730087999839</v>
+        <v>24.76726944078964</v>
       </c>
       <c r="L9">
-        <v>6.504353441819834</v>
+        <v>18.96902108756596</v>
       </c>
       <c r="M9">
-        <v>12.37489902590891</v>
+        <v>17.89206970531357</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.519456831973816</v>
       </c>
       <c r="O9">
-        <v>11.7586562500958</v>
+        <v>12.83818549960055</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.23843053170727</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.79145178268126</v>
+        <v>13.71915809147091</v>
       </c>
       <c r="C10">
-        <v>12.12512357887053</v>
+        <v>13.36547969448183</v>
       </c>
       <c r="D10">
-        <v>2.710760211883685</v>
+        <v>4.036810488478109</v>
       </c>
       <c r="E10">
-        <v>7.51275943031168</v>
+        <v>8.692932457534079</v>
       </c>
       <c r="F10">
-        <v>50.07611136820152</v>
+        <v>40.04661985124891</v>
       </c>
       <c r="G10">
-        <v>2.132486580372903</v>
+        <v>8.604134312991999</v>
       </c>
       <c r="H10">
-        <v>2.964009026110452</v>
+        <v>2.55016278377439</v>
       </c>
       <c r="I10">
-        <v>3.829497005214665</v>
+        <v>3.301482058911579</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>32.8210840937619</v>
+        <v>24.79428976494578</v>
       </c>
       <c r="L10">
-        <v>6.720632426260092</v>
+        <v>18.69509779661823</v>
       </c>
       <c r="M10">
-        <v>13.48077996233399</v>
+        <v>18.2259948007002</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.647287777089113</v>
       </c>
       <c r="O10">
-        <v>12.44414509685853</v>
+        <v>13.87899706845339</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>12.99285320640076</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.45900724220294</v>
+        <v>14.4733893880989</v>
       </c>
       <c r="C11">
-        <v>12.03713048857828</v>
+        <v>12.70327129057483</v>
       </c>
       <c r="D11">
-        <v>2.574837565467333</v>
+        <v>4.308733742015201</v>
       </c>
       <c r="E11">
-        <v>6.436199123938204</v>
+        <v>7.679067056050094</v>
       </c>
       <c r="F11">
-        <v>46.69617746905752</v>
+        <v>35.68209152088148</v>
       </c>
       <c r="G11">
-        <v>2.130315245095685</v>
+        <v>10.97143999839721</v>
       </c>
       <c r="H11">
-        <v>3.652722154906574</v>
+        <v>3.351467316221774</v>
       </c>
       <c r="I11">
-        <v>3.760302747862752</v>
+        <v>3.276835700536952</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>30.55145135803663</v>
+        <v>22.06944027736645</v>
       </c>
       <c r="L11">
-        <v>6.084935483041547</v>
+        <v>16.55078130299562</v>
       </c>
       <c r="M11">
-        <v>13.91053468135479</v>
+        <v>16.26959317616374</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.02892640986844</v>
       </c>
       <c r="O11">
-        <v>12.01827282904771</v>
+        <v>14.18538629090068</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.54958092155356</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.80227551621553</v>
+        <v>14.8787111851563</v>
       </c>
       <c r="C12">
-        <v>11.74341607482717</v>
+        <v>12.08160919796733</v>
       </c>
       <c r="D12">
-        <v>2.454162897897023</v>
+        <v>4.314307181072951</v>
       </c>
       <c r="E12">
-        <v>5.566444882888821</v>
+        <v>6.780229399766637</v>
       </c>
       <c r="F12">
-        <v>43.52557952907172</v>
+        <v>32.48022485253863</v>
       </c>
       <c r="G12">
-        <v>2.130228464870734</v>
+        <v>12.44501023437424</v>
       </c>
       <c r="H12">
-        <v>4.812125379535826</v>
+        <v>4.584259394306177</v>
       </c>
       <c r="I12">
-        <v>3.758281640809683</v>
+        <v>3.278727869531648</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>28.52761702156551</v>
+        <v>20.23587775986017</v>
       </c>
       <c r="L12">
-        <v>5.622031350686981</v>
+        <v>15.17505577575216</v>
       </c>
       <c r="M12">
-        <v>14.046639973465</v>
+        <v>14.88431894833502</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.623934296148242</v>
       </c>
       <c r="O12">
-        <v>11.49893137263995</v>
+        <v>14.25883935868027</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.99593796932194</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.9204869607651</v>
+        <v>15.02870817906745</v>
       </c>
       <c r="C13">
-        <v>11.29215710270136</v>
+        <v>11.53312068569617</v>
       </c>
       <c r="D13">
-        <v>2.348872339913117</v>
+        <v>4.068535569687581</v>
       </c>
       <c r="E13">
-        <v>4.859100061096936</v>
+        <v>5.949336864496229</v>
       </c>
       <c r="F13">
-        <v>40.12562923927886</v>
+        <v>30.09820958154126</v>
       </c>
       <c r="G13">
-        <v>2.131803445365112</v>
+        <v>12.20690328021885</v>
       </c>
       <c r="H13">
-        <v>6.122359943057232</v>
+        <v>5.92709038255417</v>
       </c>
       <c r="I13">
-        <v>3.821557682693045</v>
+        <v>3.316368150791399</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.43318931777205</v>
+        <v>19.02017125541265</v>
       </c>
       <c r="L13">
-        <v>5.280890015214529</v>
+        <v>14.30750350085756</v>
       </c>
       <c r="M13">
-        <v>13.97340680716105</v>
+        <v>13.91209529465714</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.373105890501571</v>
       </c>
       <c r="O13">
-        <v>10.87367983954571</v>
+        <v>14.18168675216137</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.31283727803114</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.90247069296287</v>
+        <v>15.01948631578369</v>
       </c>
       <c r="C14">
-        <v>10.90421939585785</v>
+        <v>11.17381687241448</v>
       </c>
       <c r="D14">
-        <v>2.285613293230251</v>
+        <v>3.79239477312673</v>
       </c>
       <c r="E14">
-        <v>4.510090433790657</v>
+        <v>5.476265021772193</v>
       </c>
       <c r="F14">
-        <v>37.60349239165057</v>
+        <v>28.73710331396085</v>
       </c>
       <c r="G14">
-        <v>2.133650175343082</v>
+        <v>11.32373866225109</v>
       </c>
       <c r="H14">
-        <v>7.084502452449421</v>
+        <v>6.899794496292665</v>
       </c>
       <c r="I14">
-        <v>3.897358538576237</v>
+        <v>3.362711584678457</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.91895557154788</v>
+        <v>18.40030098470148</v>
       </c>
       <c r="L14">
-        <v>5.130023187674729</v>
+        <v>13.88492331573569</v>
       </c>
       <c r="M14">
-        <v>13.82780820639391</v>
+        <v>13.38886456752927</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.29019083985367</v>
       </c>
       <c r="O14">
-        <v>10.38403385308914</v>
+        <v>14.05835907187834</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.77070183705245</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.84744825722228</v>
+        <v>14.96127589477512</v>
       </c>
       <c r="C15">
-        <v>10.78287616215158</v>
+        <v>11.09926105448341</v>
       </c>
       <c r="D15">
-        <v>2.275227881555774</v>
+        <v>3.68566507336859</v>
       </c>
       <c r="E15">
-        <v>4.443669478706695</v>
+        <v>5.376575048814822</v>
       </c>
       <c r="F15">
-        <v>36.90435194302545</v>
+        <v>28.51236706334428</v>
       </c>
       <c r="G15">
-        <v>2.134491437353931</v>
+        <v>10.83974995820361</v>
       </c>
       <c r="H15">
-        <v>7.315495764389873</v>
+        <v>7.129597629108529</v>
       </c>
       <c r="I15">
-        <v>3.934438809609558</v>
+        <v>3.387494955183226</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.50725101014222</v>
+        <v>18.3254274328877</v>
       </c>
       <c r="L15">
-        <v>5.102408156140463</v>
+        <v>13.84292526293327</v>
       </c>
       <c r="M15">
-        <v>13.74775338942864</v>
+        <v>13.31243370134967</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.281427578191644</v>
       </c>
       <c r="O15">
-        <v>10.24434809342551</v>
+        <v>13.99469610631872</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.61286104372766</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.36513282237475</v>
+        <v>14.43546948155889</v>
       </c>
       <c r="C16">
-        <v>10.48473102966108</v>
+        <v>11.13575855965028</v>
       </c>
       <c r="D16">
-        <v>2.293777491047633</v>
+        <v>3.316920461381936</v>
       </c>
       <c r="E16">
-        <v>4.376186959261142</v>
+        <v>5.312312445853422</v>
       </c>
       <c r="F16">
-        <v>36.46731174542586</v>
+        <v>29.62150991328888</v>
       </c>
       <c r="G16">
-        <v>2.138225732387983</v>
+        <v>9.063939768785598</v>
       </c>
       <c r="H16">
-        <v>7.180898907710002</v>
+        <v>6.95895808323754</v>
       </c>
       <c r="I16">
-        <v>4.085810929181196</v>
+        <v>3.483379727158772</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.33566997015685</v>
+        <v>19.10954507106481</v>
       </c>
       <c r="L16">
-        <v>5.063357173585292</v>
+        <v>14.47937324066174</v>
       </c>
       <c r="M16">
-        <v>13.30884345573384</v>
+        <v>13.83799214281864</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.274681415789787</v>
       </c>
       <c r="O16">
-        <v>10.05666527831727</v>
+        <v>13.65085309052933</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.38363491851104</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.99524980007139</v>
+        <v>14.03778464037612</v>
       </c>
       <c r="C17">
-        <v>10.47134831765718</v>
+        <v>11.33321336807117</v>
       </c>
       <c r="D17">
-        <v>2.341671780467986</v>
+        <v>3.222739230820376</v>
       </c>
       <c r="E17">
-        <v>4.482419406500333</v>
+        <v>5.467846260458677</v>
       </c>
       <c r="F17">
-        <v>37.49685495842787</v>
+        <v>31.06387672590904</v>
       </c>
       <c r="G17">
-        <v>2.140127653864661</v>
+        <v>8.707891231323282</v>
       </c>
       <c r="H17">
-        <v>6.548766935065661</v>
+        <v>6.287004804436329</v>
       </c>
       <c r="I17">
-        <v>4.162925695291266</v>
+        <v>3.534813329149447</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.01178189385871</v>
+        <v>19.97546765784266</v>
       </c>
       <c r="L17">
-        <v>5.096748823749272</v>
+        <v>15.16627507112783</v>
       </c>
       <c r="M17">
-        <v>13.04565857942775</v>
+        <v>14.45145862121196</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.304103823881182</v>
       </c>
       <c r="O17">
-        <v>10.18091229583328</v>
+        <v>13.43784234754402</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.50828767351821</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.69277703230123</v>
+        <v>13.70399487770464</v>
       </c>
       <c r="C18">
-        <v>10.68488834763037</v>
+        <v>11.73166501744624</v>
       </c>
       <c r="D18">
-        <v>2.41921639154509</v>
+        <v>3.274352875556975</v>
       </c>
       <c r="E18">
-        <v>4.91625363886326</v>
+        <v>5.953458793382826</v>
       </c>
       <c r="F18">
-        <v>40.01146602833258</v>
+        <v>33.30960151206308</v>
       </c>
       <c r="G18">
-        <v>2.140537947234997</v>
+        <v>8.604567341705941</v>
       </c>
       <c r="H18">
-        <v>5.469492142803582</v>
+        <v>5.151452143109314</v>
       </c>
       <c r="I18">
-        <v>4.172406837359696</v>
+        <v>3.537528168287475</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>26.58700483023776</v>
+        <v>21.24259885750505</v>
       </c>
       <c r="L18">
-        <v>5.28942631724711</v>
+        <v>16.14453439316849</v>
       </c>
       <c r="M18">
-        <v>12.90871844844397</v>
+        <v>15.38812673409874</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.458359706022864</v>
       </c>
       <c r="O18">
-        <v>10.58316775057795</v>
+        <v>13.33414716026216</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.94453950449936</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.46441864406295</v>
+        <v>13.43996525757013</v>
       </c>
       <c r="C19">
-        <v>11.09510336290589</v>
+        <v>12.31699829755012</v>
       </c>
       <c r="D19">
-        <v>2.536249466410081</v>
+        <v>3.441977034824659</v>
       </c>
       <c r="E19">
-        <v>5.758355358064695</v>
+        <v>6.827023429680542</v>
       </c>
       <c r="F19">
-        <v>43.38624136145383</v>
+        <v>36.02704063326976</v>
       </c>
       <c r="G19">
-        <v>2.139649888556526</v>
+        <v>8.478346420606044</v>
       </c>
       <c r="H19">
-        <v>4.262600692304069</v>
+        <v>3.867771176401942</v>
       </c>
       <c r="I19">
-        <v>4.138686890084994</v>
+        <v>3.516880903077345</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>28.67738264689021</v>
+        <v>22.73850694232042</v>
       </c>
       <c r="L19">
-        <v>5.708802247004463</v>
+        <v>17.28262657812875</v>
       </c>
       <c r="M19">
-        <v>12.89212143156004</v>
+        <v>16.51444203254684</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.811396267216621</v>
       </c>
       <c r="O19">
-        <v>11.18486836090672</v>
+        <v>13.34002486389044</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.60018287482277</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.48316338603661</v>
+        <v>13.40452798617092</v>
       </c>
       <c r="C20">
-        <v>11.95315714282018</v>
+        <v>13.33545107470174</v>
       </c>
       <c r="D20">
-        <v>2.730628701404983</v>
+        <v>3.870904786309767</v>
       </c>
       <c r="E20">
-        <v>7.427814608406415</v>
+        <v>8.555534371020483</v>
       </c>
       <c r="F20">
-        <v>49.20460013028064</v>
+        <v>40.10727886949368</v>
       </c>
       <c r="G20">
-        <v>2.135078362567937</v>
+        <v>8.219326214332956</v>
       </c>
       <c r="H20">
-        <v>3.08423472954926</v>
+        <v>2.635321253943418</v>
       </c>
       <c r="I20">
-        <v>3.955015133184406</v>
+        <v>3.394781659358792</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>32.28065471889995</v>
+        <v>24.91685000292282</v>
       </c>
       <c r="L20">
-        <v>6.649790316179888</v>
+        <v>18.86291720809522</v>
       </c>
       <c r="M20">
-        <v>13.20521829868299</v>
+        <v>18.23638388918639</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.617008019880291</v>
       </c>
       <c r="O20">
-        <v>12.28130282404552</v>
+        <v>13.64783048015564</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.80183560476444</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.29559358404827</v>
+        <v>14.28246547399085</v>
       </c>
       <c r="C21">
-        <v>12.69056268821204</v>
+        <v>13.37606687840131</v>
       </c>
       <c r="D21">
-        <v>2.764490529740454</v>
+        <v>4.769150016551103</v>
       </c>
       <c r="E21">
-        <v>7.936795330610074</v>
+        <v>9.307338197457714</v>
       </c>
       <c r="F21">
-        <v>51.64186595872133</v>
+        <v>38.77305048867696</v>
       </c>
       <c r="G21">
-        <v>2.127529210379213</v>
+        <v>12.09872157653832</v>
       </c>
       <c r="H21">
-        <v>2.699022400478912</v>
+        <v>2.365353093483459</v>
       </c>
       <c r="I21">
-        <v>3.653336061564829</v>
+        <v>3.221178534629502</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.66394014704605</v>
+        <v>23.68998012242268</v>
       </c>
       <c r="L21">
-        <v>6.955234021887251</v>
+        <v>17.73672333730616</v>
       </c>
       <c r="M21">
-        <v>14.0245520519463</v>
+        <v>17.53506878240086</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.767025831344877</v>
       </c>
       <c r="O21">
-        <v>12.91887730498273</v>
+        <v>14.27587975078977</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.53708380138665</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.82072930476947</v>
+        <v>14.85897789583</v>
       </c>
       <c r="C22">
-        <v>13.12671304260506</v>
+        <v>13.32825795393891</v>
       </c>
       <c r="D22">
-        <v>2.767392903049761</v>
+        <v>5.352067606609748</v>
       </c>
       <c r="E22">
-        <v>8.175834069070632</v>
+        <v>9.720304818348016</v>
       </c>
       <c r="F22">
-        <v>53.05372460197276</v>
+        <v>37.65144601435244</v>
       </c>
       <c r="G22">
-        <v>2.122741904299323</v>
+        <v>16.24540068739194</v>
       </c>
       <c r="H22">
-        <v>2.465663193661636</v>
+        <v>2.204886228553661</v>
       </c>
       <c r="I22">
-        <v>3.453088565575692</v>
+        <v>3.098735677276828</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>34.47616896173309</v>
+        <v>22.76256709816076</v>
       </c>
       <c r="L22">
-        <v>7.107811462951978</v>
+        <v>16.93017459651222</v>
       </c>
       <c r="M22">
-        <v>14.53345032811997</v>
+        <v>16.96759874561912</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.821045874684518</v>
       </c>
       <c r="O22">
-        <v>13.27489254889242</v>
+        <v>14.65515216805997</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>13.95260813227586</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.54848758802163</v>
+        <v>14.54336343989583</v>
       </c>
       <c r="C23">
-        <v>12.86602736667353</v>
+        <v>13.43007296747652</v>
       </c>
       <c r="D23">
-        <v>2.756550214046223</v>
+        <v>4.946060337686403</v>
       </c>
       <c r="E23">
-        <v>8.042133730502227</v>
+        <v>9.465829441900308</v>
       </c>
       <c r="F23">
-        <v>52.40855276362007</v>
+        <v>38.66734752097128</v>
       </c>
       <c r="G23">
-        <v>2.125245927555651</v>
+        <v>13.25291889438307</v>
       </c>
       <c r="H23">
-        <v>2.587912253527917</v>
+        <v>2.284778170695819</v>
       </c>
       <c r="I23">
-        <v>3.548468770967159</v>
+        <v>3.146551182516674</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>34.12927009402866</v>
+        <v>23.53540905469643</v>
       </c>
       <c r="L23">
-        <v>7.030735645322587</v>
+        <v>17.56186273832622</v>
       </c>
       <c r="M23">
-        <v>14.26122533618165</v>
+        <v>17.48725908745389</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.804876021471365</v>
       </c>
       <c r="O23">
-        <v>13.07933887935029</v>
+        <v>14.47151111066989</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.72185444078234</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.46220408260356</v>
+        <v>13.37769421354167</v>
       </c>
       <c r="C24">
-        <v>11.95381406017916</v>
+        <v>13.3648685022608</v>
       </c>
       <c r="D24">
-        <v>2.730934250255071</v>
+        <v>3.853476644956072</v>
       </c>
       <c r="E24">
-        <v>7.532142572985046</v>
+        <v>8.66261176446344</v>
       </c>
       <c r="F24">
-        <v>49.7234448789357</v>
+        <v>40.5454254158802</v>
       </c>
       <c r="G24">
-        <v>2.134938305098028</v>
+        <v>8.185749107058738</v>
       </c>
       <c r="H24">
-        <v>3.061744919022122</v>
+        <v>2.613994665948943</v>
       </c>
       <c r="I24">
-        <v>3.935077815791761</v>
+        <v>3.372318579769216</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>32.64079464291328</v>
+        <v>25.19782573975967</v>
       </c>
       <c r="L24">
-        <v>6.72493555514537</v>
+        <v>19.07839053429831</v>
       </c>
       <c r="M24">
-        <v>13.19222879506869</v>
+        <v>18.44550911277404</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.684678776090015</v>
       </c>
       <c r="O24">
-        <v>12.32870500267506</v>
+        <v>13.63884213783862</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>12.85598696762963</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.19117166472926</v>
+        <v>12.18570972692314</v>
       </c>
       <c r="C25">
-        <v>10.92691181902039</v>
+        <v>12.2004834999185</v>
       </c>
       <c r="D25">
-        <v>2.703563870818453</v>
+        <v>3.514887950900754</v>
       </c>
       <c r="E25">
-        <v>6.950917349874336</v>
+        <v>8.076453189640805</v>
       </c>
       <c r="F25">
-        <v>46.67866319277488</v>
+        <v>38.72307766036533</v>
       </c>
       <c r="G25">
-        <v>2.145716552157432</v>
+        <v>9.259182878196631</v>
       </c>
       <c r="H25">
-        <v>3.590718526608407</v>
+        <v>3.045187162347108</v>
       </c>
       <c r="I25">
-        <v>4.368034581122991</v>
+        <v>3.688605298210066</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>30.95881673440737</v>
+        <v>24.48978869556525</v>
       </c>
       <c r="L25">
-        <v>6.379369197494754</v>
+        <v>18.86785758925502</v>
       </c>
       <c r="M25">
-        <v>11.94775347710632</v>
+        <v>17.57192654428889</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.431026011561602</v>
       </c>
       <c r="O25">
-        <v>11.47738013191178</v>
+        <v>12.42856761085625</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>11.92540250173636</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
